--- a/SprintBacklog/Sprint7.xlsx
+++ b/SprintBacklog/Sprint7.xlsx
@@ -25,6 +25,7 @@
     <definedName name="Todos">Sheet1!$V$2:$V$4</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="37">
   <si>
     <t>Sprint Backlog</t>
   </si>
@@ -115,6 +116,36 @@
   </si>
   <si>
     <t>Mon 16th Mar 2015 - Mon 30th Mar 2015</t>
+  </si>
+  <si>
+    <t>The ability for the user to add reviews</t>
+  </si>
+  <si>
+    <t>Database code</t>
+  </si>
+  <si>
+    <t>Application code</t>
+  </si>
+  <si>
+    <t>Sync</t>
+  </si>
+  <si>
+    <t>The ability for the user to clone a recipe</t>
+  </si>
+  <si>
+    <t>Misc</t>
+  </si>
+  <si>
+    <t>Password Security</t>
+  </si>
+  <si>
+    <t>Recipe image share</t>
+  </si>
+  <si>
+    <t>Search suggestions</t>
+  </si>
+  <si>
+    <t>Additional clone</t>
   </si>
 </sst>
 </file>
@@ -222,7 +253,14 @@
     <cellStyle name="Neutral" xfId="1" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="66">
+  <dxfs count="74">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -254,13 +292,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
@@ -289,6 +320,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
@@ -310,13 +348,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
@@ -345,6 +376,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
@@ -366,13 +404,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
@@ -401,6 +432,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
@@ -416,6 +454,55 @@
       <fill>
         <patternFill>
           <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
     </dxf>
@@ -696,8 +783,8 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
-      <tableStyleElement type="wholeTable" dxfId="65"/>
-      <tableStyleElement type="headerRow" dxfId="64"/>
+      <tableStyleElement type="wholeTable" dxfId="73"/>
+      <tableStyleElement type="headerRow" dxfId="72"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -1003,10 +1090,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V17"/>
+  <dimension ref="A1:V35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1311,52 +1398,52 @@
         <v>20</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D11" s="8">
         <v>20</v>
       </c>
       <c r="E11" s="8">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="F11" s="8">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G11" s="8">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="H11" s="8">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="I11" s="8">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="J11" s="8">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="K11" s="8">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L11" s="8">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="M11" s="8">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="N11" s="8">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="O11" s="8">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="P11" s="8">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="Q11" s="8">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="R11" s="8">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.3">
@@ -1381,7 +1468,7 @@
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>1</v>
@@ -1436,243 +1523,955 @@
       </c>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>20</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>11</v>
+      <c r="A14" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14">
+        <v>8</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
-      <c r="M14" s="3"/>
-      <c r="N14" s="3"/>
-      <c r="O14" s="3"/>
-      <c r="P14" s="3"/>
+        <v>15</v>
+      </c>
+      <c r="D14" s="8">
+        <v>8</v>
+      </c>
+      <c r="E14" s="8">
+        <v>8</v>
+      </c>
+      <c r="F14" s="8">
+        <v>0</v>
+      </c>
+      <c r="G14" s="8">
+        <v>0</v>
+      </c>
+      <c r="H14" s="8">
+        <v>0</v>
+      </c>
+      <c r="I14" s="8">
+        <v>0</v>
+      </c>
+      <c r="J14" s="8">
+        <v>0</v>
+      </c>
+      <c r="K14" s="8">
+        <v>0</v>
+      </c>
+      <c r="L14" s="8">
+        <v>0</v>
+      </c>
+      <c r="M14" s="8">
+        <v>0</v>
+      </c>
+      <c r="N14" s="8">
+        <v>0</v>
+      </c>
+      <c r="O14" s="8">
+        <v>0</v>
+      </c>
+      <c r="P14" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="8">
+        <v>0</v>
+      </c>
+      <c r="R14" s="8">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A15" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>11</v>
+        <v>29</v>
+      </c>
+      <c r="B15">
+        <v>15</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
-      <c r="M15" s="3"/>
-      <c r="N15" s="3"/>
-      <c r="O15" s="3"/>
-      <c r="P15" s="3"/>
+        <v>15</v>
+      </c>
+      <c r="D15" s="8">
+        <v>15</v>
+      </c>
+      <c r="E15" s="8">
+        <v>15</v>
+      </c>
+      <c r="F15" s="8">
+        <v>10</v>
+      </c>
+      <c r="G15" s="8">
+        <v>0</v>
+      </c>
+      <c r="H15" s="8">
+        <v>0</v>
+      </c>
+      <c r="I15" s="8">
+        <v>0</v>
+      </c>
+      <c r="J15" s="8">
+        <v>0</v>
+      </c>
+      <c r="K15" s="8">
+        <v>0</v>
+      </c>
+      <c r="L15" s="8">
+        <v>0</v>
+      </c>
+      <c r="M15" s="8">
+        <v>0</v>
+      </c>
+      <c r="N15" s="8">
+        <v>0</v>
+      </c>
+      <c r="O15" s="8">
+        <v>0</v>
+      </c>
+      <c r="P15" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="8">
+        <v>0</v>
+      </c>
+      <c r="R15" s="8">
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A16" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16">
+        <v>10</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" s="8">
+        <v>10</v>
+      </c>
+      <c r="E16" s="8">
+        <v>10</v>
+      </c>
+      <c r="F16" s="8">
+        <v>10</v>
+      </c>
+      <c r="G16" s="8">
+        <v>0</v>
+      </c>
+      <c r="H16" s="8">
+        <v>0</v>
+      </c>
+      <c r="I16" s="8">
+        <v>0</v>
+      </c>
+      <c r="J16" s="8">
+        <v>0</v>
+      </c>
+      <c r="K16" s="8">
+        <v>0</v>
+      </c>
+      <c r="L16" s="8">
+        <v>0</v>
+      </c>
+      <c r="M16" s="8">
+        <v>0</v>
+      </c>
+      <c r="N16" s="8">
+        <v>0</v>
+      </c>
+      <c r="O16" s="8">
+        <v>0</v>
+      </c>
+      <c r="P16" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="8">
+        <v>0</v>
+      </c>
+      <c r="R16" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L18" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="M18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P18" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q18" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="R18" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19">
+        <v>10</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D19">
+        <v>10</v>
+      </c>
+      <c r="E19">
+        <v>10</v>
+      </c>
+      <c r="F19">
+        <v>10</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L21" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="M21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P21" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q21" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="R21" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>33</v>
+      </c>
+      <c r="B22">
+        <v>8</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D22">
+        <v>8</v>
+      </c>
+      <c r="E22">
+        <v>8</v>
+      </c>
+      <c r="F22">
+        <v>8</v>
+      </c>
+      <c r="G22">
+        <v>8</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>34</v>
+      </c>
+      <c r="B23">
+        <v>5</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D23">
+        <v>5</v>
+      </c>
+      <c r="E23">
+        <v>5</v>
+      </c>
+      <c r="F23">
+        <v>5</v>
+      </c>
+      <c r="G23">
+        <v>5</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>35</v>
+      </c>
+      <c r="B24">
+        <v>5</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D24">
+        <v>5</v>
+      </c>
+      <c r="E24">
+        <v>5</v>
+      </c>
+      <c r="F24">
+        <v>5</v>
+      </c>
+      <c r="G24">
+        <v>5</v>
+      </c>
+      <c r="H24">
+        <v>5</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>36</v>
+      </c>
+      <c r="B25">
+        <v>6</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D25">
+        <v>6</v>
+      </c>
+      <c r="E25">
+        <v>6</v>
+      </c>
+      <c r="F25">
+        <v>6</v>
+      </c>
+      <c r="G25">
+        <v>6</v>
+      </c>
+      <c r="H25">
+        <v>6</v>
+      </c>
+      <c r="I25">
+        <v>6</v>
+      </c>
+      <c r="J25">
+        <v>6</v>
+      </c>
+      <c r="K25">
+        <v>6</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A31" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H31" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I31" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J31" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K31" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L31" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="M31" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N31" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O31" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P31" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q31" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="R31" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>20</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
+      <c r="I32" s="3"/>
+      <c r="J32" s="3"/>
+      <c r="K32" s="3"/>
+      <c r="L32" s="3"/>
+      <c r="M32" s="3"/>
+      <c r="N32" s="3"/>
+      <c r="O32" s="3"/>
+      <c r="P32" s="3"/>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A33" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
+      <c r="I33" s="3"/>
+      <c r="J33" s="3"/>
+      <c r="K33" s="3"/>
+      <c r="L33" s="3"/>
+      <c r="M33" s="3"/>
+      <c r="N33" s="3"/>
+      <c r="O33" s="3"/>
+      <c r="P33" s="3"/>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A34" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B34" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C34" s="6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A17" s="3" t="s">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A35" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B17">
-        <f>SUM(B4:B13)</f>
-        <v>120</v>
-      </c>
-      <c r="D17">
-        <f>SUM(D4:D16)</f>
-        <v>60</v>
-      </c>
-      <c r="E17">
-        <f>SUM(E4:E13)</f>
-        <v>20</v>
-      </c>
-      <c r="F17">
-        <f>SUM(F4:F13)</f>
-        <v>20</v>
-      </c>
-      <c r="G17">
-        <f>SUM(G4:G13)</f>
-        <v>20</v>
-      </c>
-      <c r="H17">
-        <f>SUM(H4:H13)</f>
-        <v>20</v>
-      </c>
-      <c r="I17">
-        <f>SUM(I4:I13)</f>
-        <v>20</v>
-      </c>
-      <c r="J17">
-        <f>SUM(J4:J13)</f>
-        <v>20</v>
-      </c>
-      <c r="K17">
-        <f>SUM(K4:K16)</f>
-        <v>20</v>
-      </c>
-      <c r="L17">
-        <f>SUM(L4:L16)</f>
-        <v>20</v>
-      </c>
-      <c r="M17">
-        <f>SUM(M4:M16)</f>
-        <v>20</v>
-      </c>
-      <c r="N17">
-        <f>SUM(N4:N16)</f>
-        <v>20</v>
-      </c>
-      <c r="O17">
-        <f>SUM(O4:O16)</f>
-        <v>20</v>
-      </c>
-      <c r="P17">
-        <f>SUM(P4:P16)</f>
-        <v>20</v>
-      </c>
-      <c r="Q17">
-        <f>SUM(Q4:Q16)</f>
-        <v>20</v>
-      </c>
-      <c r="R17">
-        <f>SUM(R1:R13)</f>
-        <v>20</v>
+      <c r="B35">
+        <f>SUM(B22:B31)</f>
+        <v>24</v>
+      </c>
+      <c r="D35">
+        <f>SUM(D22:D34)</f>
+        <v>24</v>
+      </c>
+      <c r="E35">
+        <f t="shared" ref="E35:J35" si="0">SUM(E22:E31)</f>
+        <v>24</v>
+      </c>
+      <c r="F35">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="G35">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="H35">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="I35">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="J35">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="K35">
+        <f t="shared" ref="K35:Q35" si="1">SUM(K22:K34)</f>
+        <v>6</v>
+      </c>
+      <c r="L35">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M35">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N35">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O35">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P35">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q35">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R35">
+        <f>SUM(R19:R31)</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C15">
-    <cfRule type="cellIs" dxfId="47" priority="145" operator="equal">
+  <conditionalFormatting sqref="C8">
+    <cfRule type="containsText" dxfId="71" priority="54" operator="containsText" text="Done">
+      <formula>NOT(ISERROR(SEARCH("Done",C8)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="70" priority="55" operator="containsText" text="In Progress">
+      <formula>NOT(ISERROR(SEARCH("In Progress",C8)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="69" priority="56" operator="containsText" text="To Do">
+      <formula>NOT(ISERROR(SEARCH("To Do",C8)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C8">
+    <cfRule type="cellIs" dxfId="68" priority="53" operator="equal">
       <formula>"Done"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C16">
-    <cfRule type="containsText" dxfId="46" priority="142" operator="containsText" text="Done">
-      <formula>NOT(ISERROR(SEARCH("Done",C16)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="45" priority="143" operator="containsText" text="In Progress">
-      <formula>NOT(ISERROR(SEARCH("In Progress",C16)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="44" priority="144" operator="containsText" text="To Do">
-      <formula>NOT(ISERROR(SEARCH("To Do",C16)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C16">
-    <cfRule type="cellIs" dxfId="43" priority="141" operator="equal">
+  <conditionalFormatting sqref="C9">
+    <cfRule type="containsText" dxfId="67" priority="50" operator="containsText" text="Done">
+      <formula>NOT(ISERROR(SEARCH("Done",C9)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="66" priority="51" operator="containsText" text="In Progress">
+      <formula>NOT(ISERROR(SEARCH("In Progress",C9)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="65" priority="52" operator="containsText" text="To Do">
+      <formula>NOT(ISERROR(SEARCH("To Do",C9)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C9">
+    <cfRule type="cellIs" dxfId="64" priority="49" operator="equal">
       <formula>"Done"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C14">
-    <cfRule type="containsText" dxfId="42" priority="138" operator="containsText" text="Done">
+  <conditionalFormatting sqref="C10">
+    <cfRule type="containsText" dxfId="63" priority="46" operator="containsText" text="Done">
+      <formula>NOT(ISERROR(SEARCH("Done",C10)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="62" priority="47" operator="containsText" text="In Progress">
+      <formula>NOT(ISERROR(SEARCH("In Progress",C10)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="61" priority="48" operator="containsText" text="To Do">
+      <formula>NOT(ISERROR(SEARCH("To Do",C10)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C10">
+    <cfRule type="cellIs" dxfId="60" priority="45" operator="equal">
+      <formula>"Done"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C11">
+    <cfRule type="containsText" dxfId="59" priority="42" operator="containsText" text="Done">
+      <formula>NOT(ISERROR(SEARCH("Done",C11)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="58" priority="43" operator="containsText" text="In Progress">
+      <formula>NOT(ISERROR(SEARCH("In Progress",C11)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="57" priority="44" operator="containsText" text="To Do">
+      <formula>NOT(ISERROR(SEARCH("To Do",C11)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C11">
+    <cfRule type="cellIs" dxfId="56" priority="41" operator="equal">
+      <formula>"Done"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C33">
+    <cfRule type="cellIs" dxfId="55" priority="37" operator="equal">
+      <formula>"Done"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C34">
+    <cfRule type="containsText" dxfId="54" priority="34" operator="containsText" text="Done">
+      <formula>NOT(ISERROR(SEARCH("Done",C34)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="53" priority="35" operator="containsText" text="In Progress">
+      <formula>NOT(ISERROR(SEARCH("In Progress",C34)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="52" priority="36" operator="containsText" text="To Do">
+      <formula>NOT(ISERROR(SEARCH("To Do",C34)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C34">
+    <cfRule type="cellIs" dxfId="51" priority="33" operator="equal">
+      <formula>"Done"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C32">
+    <cfRule type="containsText" dxfId="50" priority="30" operator="containsText" text="Done">
+      <formula>NOT(ISERROR(SEARCH("Done",C32)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="49" priority="31" operator="containsText" text="In Progress">
+      <formula>NOT(ISERROR(SEARCH("In Progress",C32)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="48" priority="32" operator="containsText" text="To Do">
+      <formula>NOT(ISERROR(SEARCH("To Do",C32)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C32">
+    <cfRule type="cellIs" dxfId="47" priority="29" operator="equal">
+      <formula>"Done"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C33">
+    <cfRule type="containsText" dxfId="46" priority="38" operator="containsText" text="Done">
+      <formula>NOT(ISERROR(SEARCH("Done",C33)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="45" priority="39" operator="containsText" text="In Progress">
+      <formula>NOT(ISERROR(SEARCH("In Progress",C33)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="44" priority="40" operator="containsText" text="To Do">
+      <formula>NOT(ISERROR(SEARCH("To Do",C33)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C14:C16">
+    <cfRule type="containsText" dxfId="43" priority="26" operator="containsText" text="Done">
       <formula>NOT(ISERROR(SEARCH("Done",C14)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="41" priority="139" operator="containsText" text="In Progress">
+    <cfRule type="containsText" dxfId="42" priority="27" operator="containsText" text="In Progress">
       <formula>NOT(ISERROR(SEARCH("In Progress",C14)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="40" priority="140" operator="containsText" text="To Do">
+    <cfRule type="containsText" dxfId="41" priority="28" operator="containsText" text="To Do">
       <formula>NOT(ISERROR(SEARCH("To Do",C14)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C14">
-    <cfRule type="cellIs" dxfId="39" priority="137" operator="equal">
+  <conditionalFormatting sqref="C14:C16">
+    <cfRule type="cellIs" dxfId="40" priority="25" operator="equal">
       <formula>"Done"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C15">
-    <cfRule type="containsText" dxfId="38" priority="146" operator="containsText" text="Done">
-      <formula>NOT(ISERROR(SEARCH("Done",C15)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="37" priority="147" operator="containsText" text="In Progress">
-      <formula>NOT(ISERROR(SEARCH("In Progress",C15)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="36" priority="148" operator="containsText" text="To Do">
-      <formula>NOT(ISERROR(SEARCH("To Do",C15)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C8">
-    <cfRule type="containsText" dxfId="15" priority="14" operator="containsText" text="Done">
-      <formula>NOT(ISERROR(SEARCH("Done",C8)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="14" priority="15" operator="containsText" text="In Progress">
-      <formula>NOT(ISERROR(SEARCH("In Progress",C8)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="13" priority="16" operator="containsText" text="To Do">
-      <formula>NOT(ISERROR(SEARCH("To Do",C8)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C8">
-    <cfRule type="cellIs" dxfId="12" priority="13" operator="equal">
+  <conditionalFormatting sqref="C19">
+    <cfRule type="containsText" dxfId="39" priority="18" operator="containsText" text="Done">
+      <formula>NOT(ISERROR(SEARCH("Done",C19)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="38" priority="19" operator="containsText" text="In Progress">
+      <formula>NOT(ISERROR(SEARCH("In Progress",C19)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="37" priority="20" operator="containsText" text="To Do">
+      <formula>NOT(ISERROR(SEARCH("To Do",C19)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C19">
+    <cfRule type="cellIs" dxfId="33" priority="17" operator="equal">
       <formula>"Done"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C9">
-    <cfRule type="containsText" dxfId="11" priority="10" operator="containsText" text="Done">
-      <formula>NOT(ISERROR(SEARCH("Done",C9)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="11" operator="containsText" text="In Progress">
-      <formula>NOT(ISERROR(SEARCH("In Progress",C9)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="9" priority="12" operator="containsText" text="To Do">
-      <formula>NOT(ISERROR(SEARCH("To Do",C9)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C9">
-    <cfRule type="cellIs" dxfId="8" priority="9" operator="equal">
+  <conditionalFormatting sqref="C22">
+    <cfRule type="containsText" dxfId="31" priority="14" operator="containsText" text="Done">
+      <formula>NOT(ISERROR(SEARCH("Done",C22)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="30" priority="15" operator="containsText" text="In Progress">
+      <formula>NOT(ISERROR(SEARCH("In Progress",C22)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="29" priority="16" operator="containsText" text="To Do">
+      <formula>NOT(ISERROR(SEARCH("To Do",C22)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C22">
+    <cfRule type="cellIs" dxfId="25" priority="13" operator="equal">
       <formula>"Done"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C10">
-    <cfRule type="containsText" dxfId="7" priority="6" operator="containsText" text="Done">
-      <formula>NOT(ISERROR(SEARCH("Done",C10)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="7" operator="containsText" text="In Progress">
-      <formula>NOT(ISERROR(SEARCH("In Progress",C10)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="5" priority="8" operator="containsText" text="To Do">
-      <formula>NOT(ISERROR(SEARCH("To Do",C10)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C10">
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
+  <conditionalFormatting sqref="C25">
+    <cfRule type="containsText" dxfId="23" priority="10" operator="containsText" text="Done">
+      <formula>NOT(ISERROR(SEARCH("Done",C25)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="22" priority="11" operator="containsText" text="In Progress">
+      <formula>NOT(ISERROR(SEARCH("In Progress",C25)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="21" priority="12" operator="containsText" text="To Do">
+      <formula>NOT(ISERROR(SEARCH("To Do",C25)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C25">
+    <cfRule type="cellIs" dxfId="17" priority="9" operator="equal">
       <formula>"Done"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C11">
-    <cfRule type="containsText" dxfId="3" priority="2" operator="containsText" text="Done">
-      <formula>NOT(ISERROR(SEARCH("Done",C11)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="In Progress">
-      <formula>NOT(ISERROR(SEARCH("In Progress",C11)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="4" operator="containsText" text="To Do">
-      <formula>NOT(ISERROR(SEARCH("To Do",C11)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C11">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+  <conditionalFormatting sqref="C24">
+    <cfRule type="containsText" dxfId="15" priority="6" operator="containsText" text="Done">
+      <formula>NOT(ISERROR(SEARCH("Done",C24)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="14" priority="7" operator="containsText" text="In Progress">
+      <formula>NOT(ISERROR(SEARCH("In Progress",C24)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="13" priority="8" operator="containsText" text="To Do">
+      <formula>NOT(ISERROR(SEARCH("To Do",C24)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C24">
+    <cfRule type="cellIs" dxfId="9" priority="5" operator="equal">
+      <formula>"Done"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C23">
+    <cfRule type="containsText" dxfId="7" priority="2" operator="containsText" text="Done">
+      <formula>NOT(ISERROR(SEARCH("Done",C23)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="6" priority="3" operator="containsText" text="In Progress">
+      <formula>NOT(ISERROR(SEARCH("In Progress",C23)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="5" priority="4" operator="containsText" text="To Do">
+      <formula>NOT(ISERROR(SEARCH("To Do",C23)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C23">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"Done"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1680,7 +2479,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V3">
       <formula1>To_Do</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C14:C16 C8:C11">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8:C11 C32:C34 C14:C16 C19 C22:C25">
       <formula1>Todos</formula1>
     </dataValidation>
   </dataValidations>

--- a/SprintBacklog/Sprint7.xlsx
+++ b/SprintBacklog/Sprint7.xlsx
@@ -25,7 +25,6 @@
     <definedName name="Todos">Sheet1!$V$2:$V$4</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="45">
   <si>
     <t>Sprint Backlog</t>
   </si>
@@ -146,6 +145,30 @@
   </si>
   <si>
     <t>Additional clone</t>
+  </si>
+  <si>
+    <t>The ability to explore recipes</t>
+  </si>
+  <si>
+    <t>GUI interface</t>
+  </si>
+  <si>
+    <t>Duration time in hours</t>
+  </si>
+  <si>
+    <t>Adding the ability to add and delete prep and ingred in the edit page</t>
+  </si>
+  <si>
+    <t>GUI code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Database code </t>
+  </si>
+  <si>
+    <t>Sync code</t>
+  </si>
+  <si>
+    <t>Delete querys in server</t>
   </si>
 </sst>
 </file>
@@ -253,14 +276,7 @@
     <cellStyle name="Neutral" xfId="1" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="74">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="94">
     <dxf>
       <fill>
         <patternFill>
@@ -292,6 +308,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
@@ -320,13 +343,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
@@ -348,6 +364,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
@@ -376,13 +399,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
@@ -404,6 +420,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
@@ -432,13 +455,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
@@ -460,6 +476,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
@@ -488,13 +511,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
@@ -516,6 +532,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
@@ -636,6 +659,146 @@
       <fill>
         <patternFill>
           <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
     </dxf>
@@ -783,8 +946,8 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
-      <tableStyleElement type="wholeTable" dxfId="73"/>
-      <tableStyleElement type="headerRow" dxfId="72"/>
+      <tableStyleElement type="wholeTable" dxfId="93"/>
+      <tableStyleElement type="headerRow" dxfId="92"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -1090,10 +1253,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V35"/>
+  <dimension ref="A1:V43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R44" sqref="R44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2082,396 +2245,924 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A31" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B31" s="3" t="s">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>44</v>
+      </c>
+      <c r="B26">
+        <v>5</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D26">
+        <v>5</v>
+      </c>
+      <c r="E26">
+        <v>5</v>
+      </c>
+      <c r="F26">
+        <v>5</v>
+      </c>
+      <c r="G26">
+        <v>5</v>
+      </c>
+      <c r="H26">
+        <v>5</v>
+      </c>
+      <c r="I26">
+        <v>5</v>
+      </c>
+      <c r="J26">
+        <v>5</v>
+      </c>
+      <c r="K26">
+        <v>5</v>
+      </c>
+      <c r="L26">
+        <v>5</v>
+      </c>
+      <c r="M26">
+        <v>5</v>
+      </c>
+      <c r="N26">
+        <v>7</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+      <c r="P26">
+        <v>0</v>
+      </c>
+      <c r="Q26">
+        <v>0</v>
+      </c>
+      <c r="R26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A28" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I28" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J28" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K28" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L28" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="M28" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N28" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O28" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P28" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q28" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="R28" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>38</v>
+      </c>
+      <c r="B29">
+        <v>15</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D29">
+        <v>15</v>
+      </c>
+      <c r="E29">
+        <v>15</v>
+      </c>
+      <c r="F29">
+        <v>15</v>
+      </c>
+      <c r="G29">
+        <v>15</v>
+      </c>
+      <c r="H29">
+        <v>15</v>
+      </c>
+      <c r="I29">
+        <v>15</v>
+      </c>
+      <c r="J29">
+        <v>15</v>
+      </c>
+      <c r="K29">
+        <v>15</v>
+      </c>
+      <c r="L29">
+        <v>20</v>
+      </c>
+      <c r="M29">
+        <v>0</v>
+      </c>
+      <c r="N29">
+        <v>0</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+      <c r="P29">
+        <v>0</v>
+      </c>
+      <c r="Q29">
+        <v>0</v>
+      </c>
+      <c r="R29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>28</v>
+      </c>
+      <c r="B30">
+        <v>10</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D30">
+        <v>10</v>
+      </c>
+      <c r="E30">
+        <v>10</v>
+      </c>
+      <c r="F30">
+        <v>10</v>
+      </c>
+      <c r="G30">
+        <v>10</v>
+      </c>
+      <c r="H30">
+        <v>10</v>
+      </c>
+      <c r="I30">
+        <v>10</v>
+      </c>
+      <c r="J30">
+        <v>10</v>
+      </c>
+      <c r="K30">
+        <v>10</v>
+      </c>
+      <c r="L30">
+        <v>10</v>
+      </c>
+      <c r="M30">
+        <v>10</v>
+      </c>
+      <c r="N30">
+        <v>0</v>
+      </c>
+      <c r="O30">
+        <v>0</v>
+      </c>
+      <c r="P30">
+        <v>0</v>
+      </c>
+      <c r="Q30">
+        <v>0</v>
+      </c>
+      <c r="R30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A32" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J32" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L32" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="M32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P32" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q32" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="R32" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>41</v>
+      </c>
+      <c r="B33">
+        <v>25</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D33">
+        <v>25</v>
+      </c>
+      <c r="E33">
+        <v>25</v>
+      </c>
+      <c r="F33">
+        <v>25</v>
+      </c>
+      <c r="G33">
+        <v>25</v>
+      </c>
+      <c r="H33">
+        <v>25</v>
+      </c>
+      <c r="I33">
+        <v>25</v>
+      </c>
+      <c r="J33">
+        <v>25</v>
+      </c>
+      <c r="K33">
+        <v>25</v>
+      </c>
+      <c r="L33">
+        <v>25</v>
+      </c>
+      <c r="M33">
+        <v>25</v>
+      </c>
+      <c r="N33">
+        <v>25</v>
+      </c>
+      <c r="O33">
+        <v>5</v>
+      </c>
+      <c r="P33">
+        <v>0</v>
+      </c>
+      <c r="Q33">
+        <v>0</v>
+      </c>
+      <c r="R33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>42</v>
+      </c>
+      <c r="B34">
+        <v>10</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D34">
+        <v>10</v>
+      </c>
+      <c r="E34">
+        <v>10</v>
+      </c>
+      <c r="F34">
+        <v>10</v>
+      </c>
+      <c r="G34">
+        <v>10</v>
+      </c>
+      <c r="H34">
+        <v>10</v>
+      </c>
+      <c r="I34">
+        <v>10</v>
+      </c>
+      <c r="J34">
+        <v>10</v>
+      </c>
+      <c r="K34">
+        <v>10</v>
+      </c>
+      <c r="L34">
+        <v>10</v>
+      </c>
+      <c r="M34">
+        <v>10</v>
+      </c>
+      <c r="N34">
+        <v>10</v>
+      </c>
+      <c r="O34">
+        <v>10</v>
+      </c>
+      <c r="P34">
+        <v>10</v>
+      </c>
+      <c r="Q34">
+        <v>0</v>
+      </c>
+      <c r="R34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>43</v>
+      </c>
+      <c r="B35">
+        <v>10</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D35">
+        <v>10</v>
+      </c>
+      <c r="E35">
+        <v>10</v>
+      </c>
+      <c r="F35">
+        <v>10</v>
+      </c>
+      <c r="G35">
+        <v>10</v>
+      </c>
+      <c r="H35">
+        <v>10</v>
+      </c>
+      <c r="I35">
+        <v>10</v>
+      </c>
+      <c r="J35">
+        <v>10</v>
+      </c>
+      <c r="K35">
+        <v>10</v>
+      </c>
+      <c r="L35">
+        <v>10</v>
+      </c>
+      <c r="M35">
+        <v>10</v>
+      </c>
+      <c r="N35">
+        <v>10</v>
+      </c>
+      <c r="O35">
+        <v>10</v>
+      </c>
+      <c r="P35">
+        <v>10</v>
+      </c>
+      <c r="Q35">
+        <v>12</v>
+      </c>
+      <c r="R35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A39" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B39" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C31" s="3" t="s">
+      <c r="C39" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D31" s="3" t="s">
+      <c r="D39" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E31" s="3" t="s">
+      <c r="E39" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F31" s="3" t="s">
+      <c r="F39" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G31" s="3" t="s">
+      <c r="G39" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H31" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I31" s="3" t="s">
+      <c r="H39" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I39" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="J31" s="3" t="s">
+      <c r="J39" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="K31" s="3" t="s">
+      <c r="K39" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L31" s="3" t="s">
+      <c r="L39" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="M31" s="3" t="s">
+      <c r="M39" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N31" s="3" t="s">
+      <c r="N39" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O31" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P31" s="3" t="s">
+      <c r="O39" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P39" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="Q31" s="3" t="s">
+      <c r="Q39" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="R31" s="3" t="s">
+      <c r="R39" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
         <v>20</v>
       </c>
-      <c r="B32" s="8" t="s">
+      <c r="B40" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C32" s="6" t="s">
+      <c r="C40" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="3"/>
-      <c r="G32" s="3"/>
-      <c r="H32" s="3"/>
-      <c r="I32" s="3"/>
-      <c r="J32" s="3"/>
-      <c r="K32" s="3"/>
-      <c r="L32" s="3"/>
-      <c r="M32" s="3"/>
-      <c r="N32" s="3"/>
-      <c r="O32" s="3"/>
-      <c r="P32" s="3"/>
-    </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A33" s="8" t="s">
+      <c r="D40" s="3"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3"/>
+      <c r="G40" s="3"/>
+      <c r="H40" s="3"/>
+      <c r="I40" s="3"/>
+      <c r="J40" s="3"/>
+      <c r="K40" s="3"/>
+      <c r="L40" s="3"/>
+      <c r="M40" s="3"/>
+      <c r="N40" s="3"/>
+      <c r="O40" s="3"/>
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A41" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B33" s="8" t="s">
+      <c r="B41" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C33" s="6" t="s">
+      <c r="C41" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D33" s="3"/>
-      <c r="E33" s="3"/>
-      <c r="F33" s="3"/>
-      <c r="G33" s="3"/>
-      <c r="H33" s="3"/>
-      <c r="I33" s="3"/>
-      <c r="J33" s="3"/>
-      <c r="K33" s="3"/>
-      <c r="L33" s="3"/>
-      <c r="M33" s="3"/>
-      <c r="N33" s="3"/>
-      <c r="O33" s="3"/>
-      <c r="P33" s="3"/>
-    </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A34" s="8" t="s">
+      <c r="D41" s="3"/>
+      <c r="E41" s="3"/>
+      <c r="F41" s="3"/>
+      <c r="G41" s="3"/>
+      <c r="H41" s="3"/>
+      <c r="I41" s="3"/>
+      <c r="J41" s="3"/>
+      <c r="K41" s="3"/>
+      <c r="L41" s="3"/>
+      <c r="M41" s="3"/>
+      <c r="N41" s="3"/>
+      <c r="O41" s="3"/>
+      <c r="P41" s="3"/>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A42" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B42" t="s">
         <v>11</v>
       </c>
-      <c r="C34" s="6" t="s">
+      <c r="C42" s="6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A35" s="3" t="s">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A43" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B35">
-        <f>SUM(B22:B31)</f>
-        <v>24</v>
-      </c>
-      <c r="D35">
-        <f>SUM(D22:D34)</f>
-        <v>24</v>
-      </c>
-      <c r="E35">
-        <f t="shared" ref="E35:J35" si="0">SUM(E22:E31)</f>
-        <v>24</v>
-      </c>
-      <c r="F35">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="G35">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="H35">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="I35">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="J35">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="K35">
-        <f t="shared" ref="K35:Q35" si="1">SUM(K22:K34)</f>
-        <v>6</v>
-      </c>
-      <c r="L35">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M35">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="N35">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O35">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P35">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q35">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R35">
-        <f>SUM(R19:R31)</f>
+      <c r="B43">
+        <f>SUM(B8:B39)</f>
+        <v>262</v>
+      </c>
+      <c r="D43">
+        <f>SUM(D8:D42)</f>
+        <v>202</v>
+      </c>
+      <c r="E43">
+        <f>SUM(E8:E39)</f>
+        <v>142</v>
+      </c>
+      <c r="F43">
+        <f>SUM(F8:F39)</f>
+        <v>129</v>
+      </c>
+      <c r="G43">
+        <f>SUM(G8:G39)</f>
+        <v>99</v>
+      </c>
+      <c r="H43">
+        <f>SUM(H8:H39)</f>
+        <v>86</v>
+      </c>
+      <c r="I43">
+        <f>SUM(I8:I39)</f>
+        <v>81</v>
+      </c>
+      <c r="J43">
+        <f>SUM(J8:J39)</f>
+        <v>81</v>
+      </c>
+      <c r="K43">
+        <f>SUM(K8:K42)</f>
+        <v>81</v>
+      </c>
+      <c r="L43">
+        <f>SUM(L8:L42)</f>
+        <v>80</v>
+      </c>
+      <c r="M43">
+        <f>SUM(M8:M42)</f>
+        <v>60</v>
+      </c>
+      <c r="N43">
+        <f>SUM(N8:N42)</f>
+        <v>52</v>
+      </c>
+      <c r="O43">
+        <f>SUM(O8:O42)</f>
+        <v>25</v>
+      </c>
+      <c r="P43">
+        <f>SUM(P8:P42)</f>
+        <v>20</v>
+      </c>
+      <c r="Q43">
+        <f>SUM(Q8:Q42)</f>
+        <v>12</v>
+      </c>
+      <c r="R43">
+        <f>SUM(R8:R39)</f>
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="C8">
-    <cfRule type="containsText" dxfId="71" priority="54" operator="containsText" text="Done">
+    <cfRule type="containsText" dxfId="71" priority="74" operator="containsText" text="Done">
       <formula>NOT(ISERROR(SEARCH("Done",C8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="70" priority="55" operator="containsText" text="In Progress">
+    <cfRule type="containsText" dxfId="70" priority="75" operator="containsText" text="In Progress">
       <formula>NOT(ISERROR(SEARCH("In Progress",C8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="69" priority="56" operator="containsText" text="To Do">
+    <cfRule type="containsText" dxfId="69" priority="76" operator="containsText" text="To Do">
       <formula>NOT(ISERROR(SEARCH("To Do",C8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C8">
-    <cfRule type="cellIs" dxfId="68" priority="53" operator="equal">
+    <cfRule type="cellIs" dxfId="68" priority="73" operator="equal">
       <formula>"Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C9">
-    <cfRule type="containsText" dxfId="67" priority="50" operator="containsText" text="Done">
+    <cfRule type="containsText" dxfId="67" priority="70" operator="containsText" text="Done">
       <formula>NOT(ISERROR(SEARCH("Done",C9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="66" priority="51" operator="containsText" text="In Progress">
+    <cfRule type="containsText" dxfId="66" priority="71" operator="containsText" text="In Progress">
       <formula>NOT(ISERROR(SEARCH("In Progress",C9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="65" priority="52" operator="containsText" text="To Do">
+    <cfRule type="containsText" dxfId="65" priority="72" operator="containsText" text="To Do">
       <formula>NOT(ISERROR(SEARCH("To Do",C9)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C9">
-    <cfRule type="cellIs" dxfId="64" priority="49" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="69" operator="equal">
       <formula>"Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C10">
-    <cfRule type="containsText" dxfId="63" priority="46" operator="containsText" text="Done">
+    <cfRule type="containsText" dxfId="63" priority="66" operator="containsText" text="Done">
       <formula>NOT(ISERROR(SEARCH("Done",C10)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="62" priority="47" operator="containsText" text="In Progress">
+    <cfRule type="containsText" dxfId="62" priority="67" operator="containsText" text="In Progress">
       <formula>NOT(ISERROR(SEARCH("In Progress",C10)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="61" priority="48" operator="containsText" text="To Do">
+    <cfRule type="containsText" dxfId="61" priority="68" operator="containsText" text="To Do">
       <formula>NOT(ISERROR(SEARCH("To Do",C10)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C10">
-    <cfRule type="cellIs" dxfId="60" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="65" operator="equal">
       <formula>"Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C11">
-    <cfRule type="containsText" dxfId="59" priority="42" operator="containsText" text="Done">
+    <cfRule type="containsText" dxfId="59" priority="62" operator="containsText" text="Done">
       <formula>NOT(ISERROR(SEARCH("Done",C11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="58" priority="43" operator="containsText" text="In Progress">
+    <cfRule type="containsText" dxfId="58" priority="63" operator="containsText" text="In Progress">
       <formula>NOT(ISERROR(SEARCH("In Progress",C11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="57" priority="44" operator="containsText" text="To Do">
+    <cfRule type="containsText" dxfId="57" priority="64" operator="containsText" text="To Do">
       <formula>NOT(ISERROR(SEARCH("To Do",C11)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C11">
-    <cfRule type="cellIs" dxfId="56" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="61" operator="equal">
       <formula>"Done"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="C41">
+    <cfRule type="cellIs" dxfId="55" priority="57" operator="equal">
+      <formula>"Done"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C42">
+    <cfRule type="containsText" dxfId="54" priority="54" operator="containsText" text="Done">
+      <formula>NOT(ISERROR(SEARCH("Done",C42)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="53" priority="55" operator="containsText" text="In Progress">
+      <formula>NOT(ISERROR(SEARCH("In Progress",C42)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="52" priority="56" operator="containsText" text="To Do">
+      <formula>NOT(ISERROR(SEARCH("To Do",C42)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C42">
+    <cfRule type="cellIs" dxfId="51" priority="53" operator="equal">
+      <formula>"Done"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C40">
+    <cfRule type="containsText" dxfId="50" priority="50" operator="containsText" text="Done">
+      <formula>NOT(ISERROR(SEARCH("Done",C40)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="49" priority="51" operator="containsText" text="In Progress">
+      <formula>NOT(ISERROR(SEARCH("In Progress",C40)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="48" priority="52" operator="containsText" text="To Do">
+      <formula>NOT(ISERROR(SEARCH("To Do",C40)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C40">
+    <cfRule type="cellIs" dxfId="47" priority="49" operator="equal">
+      <formula>"Done"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C41">
+    <cfRule type="containsText" dxfId="46" priority="58" operator="containsText" text="Done">
+      <formula>NOT(ISERROR(SEARCH("Done",C41)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="45" priority="59" operator="containsText" text="In Progress">
+      <formula>NOT(ISERROR(SEARCH("In Progress",C41)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="44" priority="60" operator="containsText" text="To Do">
+      <formula>NOT(ISERROR(SEARCH("To Do",C41)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C14:C16">
+    <cfRule type="containsText" dxfId="43" priority="46" operator="containsText" text="Done">
+      <formula>NOT(ISERROR(SEARCH("Done",C14)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="42" priority="47" operator="containsText" text="In Progress">
+      <formula>NOT(ISERROR(SEARCH("In Progress",C14)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="41" priority="48" operator="containsText" text="To Do">
+      <formula>NOT(ISERROR(SEARCH("To Do",C14)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C14:C16">
+    <cfRule type="cellIs" dxfId="40" priority="45" operator="equal">
+      <formula>"Done"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C19">
+    <cfRule type="containsText" dxfId="39" priority="38" operator="containsText" text="Done">
+      <formula>NOT(ISERROR(SEARCH("Done",C19)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="38" priority="39" operator="containsText" text="In Progress">
+      <formula>NOT(ISERROR(SEARCH("In Progress",C19)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="37" priority="40" operator="containsText" text="To Do">
+      <formula>NOT(ISERROR(SEARCH("To Do",C19)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C19">
+    <cfRule type="cellIs" dxfId="36" priority="37" operator="equal">
+      <formula>"Done"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C22">
+    <cfRule type="containsText" dxfId="35" priority="34" operator="containsText" text="Done">
+      <formula>NOT(ISERROR(SEARCH("Done",C22)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="34" priority="35" operator="containsText" text="In Progress">
+      <formula>NOT(ISERROR(SEARCH("In Progress",C22)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="33" priority="36" operator="containsText" text="To Do">
+      <formula>NOT(ISERROR(SEARCH("To Do",C22)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C22">
+    <cfRule type="cellIs" dxfId="32" priority="33" operator="equal">
+      <formula>"Done"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C25:C26">
+    <cfRule type="containsText" dxfId="31" priority="30" operator="containsText" text="Done">
+      <formula>NOT(ISERROR(SEARCH("Done",C25)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="30" priority="31" operator="containsText" text="In Progress">
+      <formula>NOT(ISERROR(SEARCH("In Progress",C25)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="29" priority="32" operator="containsText" text="To Do">
+      <formula>NOT(ISERROR(SEARCH("To Do",C25)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C25:C26">
+    <cfRule type="cellIs" dxfId="28" priority="29" operator="equal">
+      <formula>"Done"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C24">
+    <cfRule type="containsText" dxfId="27" priority="26" operator="containsText" text="Done">
+      <formula>NOT(ISERROR(SEARCH("Done",C24)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="26" priority="27" operator="containsText" text="In Progress">
+      <formula>NOT(ISERROR(SEARCH("In Progress",C24)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="25" priority="28" operator="containsText" text="To Do">
+      <formula>NOT(ISERROR(SEARCH("To Do",C24)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C24">
+    <cfRule type="cellIs" dxfId="24" priority="25" operator="equal">
+      <formula>"Done"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C23">
+    <cfRule type="containsText" dxfId="23" priority="22" operator="containsText" text="Done">
+      <formula>NOT(ISERROR(SEARCH("Done",C23)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="22" priority="23" operator="containsText" text="In Progress">
+      <formula>NOT(ISERROR(SEARCH("In Progress",C23)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="21" priority="24" operator="containsText" text="To Do">
+      <formula>NOT(ISERROR(SEARCH("To Do",C23)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C23">
+    <cfRule type="cellIs" dxfId="20" priority="21" operator="equal">
+      <formula>"Done"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C29">
+    <cfRule type="containsText" dxfId="19" priority="18" operator="containsText" text="Done">
+      <formula>NOT(ISERROR(SEARCH("Done",C29)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="18" priority="19" operator="containsText" text="In Progress">
+      <formula>NOT(ISERROR(SEARCH("In Progress",C29)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="17" priority="20" operator="containsText" text="To Do">
+      <formula>NOT(ISERROR(SEARCH("To Do",C29)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C29">
+    <cfRule type="cellIs" dxfId="16" priority="17" operator="equal">
+      <formula>"Done"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="C33">
-    <cfRule type="cellIs" dxfId="55" priority="37" operator="equal">
+    <cfRule type="containsText" dxfId="15" priority="14" operator="containsText" text="Done">
+      <formula>NOT(ISERROR(SEARCH("Done",C33)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="14" priority="15" operator="containsText" text="In Progress">
+      <formula>NOT(ISERROR(SEARCH("In Progress",C33)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="13" priority="16" operator="containsText" text="To Do">
+      <formula>NOT(ISERROR(SEARCH("To Do",C33)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C33">
+    <cfRule type="cellIs" dxfId="12" priority="13" operator="equal">
       <formula>"Done"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="C30">
+    <cfRule type="containsText" dxfId="11" priority="10" operator="containsText" text="Done">
+      <formula>NOT(ISERROR(SEARCH("Done",C30)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="10" priority="11" operator="containsText" text="In Progress">
+      <formula>NOT(ISERROR(SEARCH("In Progress",C30)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="9" priority="12" operator="containsText" text="To Do">
+      <formula>NOT(ISERROR(SEARCH("To Do",C30)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C30">
+    <cfRule type="cellIs" dxfId="8" priority="9" operator="equal">
+      <formula>"Done"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="C34">
-    <cfRule type="containsText" dxfId="54" priority="34" operator="containsText" text="Done">
+    <cfRule type="containsText" dxfId="7" priority="6" operator="containsText" text="Done">
       <formula>NOT(ISERROR(SEARCH("Done",C34)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="53" priority="35" operator="containsText" text="In Progress">
+    <cfRule type="containsText" dxfId="6" priority="7" operator="containsText" text="In Progress">
       <formula>NOT(ISERROR(SEARCH("In Progress",C34)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="52" priority="36" operator="containsText" text="To Do">
+    <cfRule type="containsText" dxfId="5" priority="8" operator="containsText" text="To Do">
       <formula>NOT(ISERROR(SEARCH("To Do",C34)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C34">
-    <cfRule type="cellIs" dxfId="51" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
       <formula>"Done"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C32">
-    <cfRule type="containsText" dxfId="50" priority="30" operator="containsText" text="Done">
-      <formula>NOT(ISERROR(SEARCH("Done",C32)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="49" priority="31" operator="containsText" text="In Progress">
-      <formula>NOT(ISERROR(SEARCH("In Progress",C32)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="48" priority="32" operator="containsText" text="To Do">
-      <formula>NOT(ISERROR(SEARCH("To Do",C32)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C32">
-    <cfRule type="cellIs" dxfId="47" priority="29" operator="equal">
-      <formula>"Done"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C33">
-    <cfRule type="containsText" dxfId="46" priority="38" operator="containsText" text="Done">
-      <formula>NOT(ISERROR(SEARCH("Done",C33)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="45" priority="39" operator="containsText" text="In Progress">
-      <formula>NOT(ISERROR(SEARCH("In Progress",C33)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="44" priority="40" operator="containsText" text="To Do">
-      <formula>NOT(ISERROR(SEARCH("To Do",C33)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C14:C16">
-    <cfRule type="containsText" dxfId="43" priority="26" operator="containsText" text="Done">
-      <formula>NOT(ISERROR(SEARCH("Done",C14)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="42" priority="27" operator="containsText" text="In Progress">
-      <formula>NOT(ISERROR(SEARCH("In Progress",C14)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="41" priority="28" operator="containsText" text="To Do">
-      <formula>NOT(ISERROR(SEARCH("To Do",C14)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C14:C16">
-    <cfRule type="cellIs" dxfId="40" priority="25" operator="equal">
-      <formula>"Done"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C19">
-    <cfRule type="containsText" dxfId="39" priority="18" operator="containsText" text="Done">
-      <formula>NOT(ISERROR(SEARCH("Done",C19)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="38" priority="19" operator="containsText" text="In Progress">
-      <formula>NOT(ISERROR(SEARCH("In Progress",C19)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="37" priority="20" operator="containsText" text="To Do">
-      <formula>NOT(ISERROR(SEARCH("To Do",C19)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C19">
-    <cfRule type="cellIs" dxfId="33" priority="17" operator="equal">
-      <formula>"Done"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C22">
-    <cfRule type="containsText" dxfId="31" priority="14" operator="containsText" text="Done">
-      <formula>NOT(ISERROR(SEARCH("Done",C22)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="30" priority="15" operator="containsText" text="In Progress">
-      <formula>NOT(ISERROR(SEARCH("In Progress",C22)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="29" priority="16" operator="containsText" text="To Do">
-      <formula>NOT(ISERROR(SEARCH("To Do",C22)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C22">
-    <cfRule type="cellIs" dxfId="25" priority="13" operator="equal">
-      <formula>"Done"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C25">
-    <cfRule type="containsText" dxfId="23" priority="10" operator="containsText" text="Done">
-      <formula>NOT(ISERROR(SEARCH("Done",C25)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="22" priority="11" operator="containsText" text="In Progress">
-      <formula>NOT(ISERROR(SEARCH("In Progress",C25)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="21" priority="12" operator="containsText" text="To Do">
-      <formula>NOT(ISERROR(SEARCH("To Do",C25)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C25">
-    <cfRule type="cellIs" dxfId="17" priority="9" operator="equal">
-      <formula>"Done"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C24">
-    <cfRule type="containsText" dxfId="15" priority="6" operator="containsText" text="Done">
-      <formula>NOT(ISERROR(SEARCH("Done",C24)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="14" priority="7" operator="containsText" text="In Progress">
-      <formula>NOT(ISERROR(SEARCH("In Progress",C24)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="13" priority="8" operator="containsText" text="To Do">
-      <formula>NOT(ISERROR(SEARCH("To Do",C24)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C24">
-    <cfRule type="cellIs" dxfId="9" priority="5" operator="equal">
-      <formula>"Done"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C23">
-    <cfRule type="containsText" dxfId="7" priority="2" operator="containsText" text="Done">
-      <formula>NOT(ISERROR(SEARCH("Done",C23)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="3" operator="containsText" text="In Progress">
-      <formula>NOT(ISERROR(SEARCH("In Progress",C23)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="5" priority="4" operator="containsText" text="To Do">
-      <formula>NOT(ISERROR(SEARCH("To Do",C23)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C23">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+  <conditionalFormatting sqref="C35">
+    <cfRule type="containsText" dxfId="3" priority="2" operator="containsText" text="Done">
+      <formula>NOT(ISERROR(SEARCH("Done",C35)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="In Progress">
+      <formula>NOT(ISERROR(SEARCH("In Progress",C35)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1" priority="4" operator="containsText" text="To Do">
+      <formula>NOT(ISERROR(SEARCH("To Do",C35)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C35">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"Done"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2479,7 +3170,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V3">
       <formula1>To_Do</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8:C11 C32:C34 C14:C16 C19 C22:C25">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8:C11 C40:C42 C14:C16 C19 C22:C26 C29:C30 C33:C35">
       <formula1>Todos</formula1>
     </dataValidation>
   </dataValidations>
